--- a/Logging_Fabio.xlsx
+++ b/Logging_Fabio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiopuissant/UHasselt/Software Engineering/inf-seng-20-21-team-projectgroep-10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B6C8C1-92BB-6D49-A907-7B1AFA6F8206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D0861-D860-4F49-95FA-557DD11D2019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
   <si>
     <t>TASK</t>
   </si>
@@ -152,6 +152,33 @@
   </si>
   <si>
     <t>kritiek implementeren</t>
+  </si>
+  <si>
+    <t>Presentatie oefenen in team</t>
+  </si>
+  <si>
+    <t>presentatie in team oefenen</t>
+  </si>
+  <si>
+    <t>Fabio Puissant - 2055346</t>
+  </si>
+  <si>
+    <t>Presentatie geven</t>
+  </si>
+  <si>
+    <t>Presentatie geven op punten</t>
+  </si>
+  <si>
+    <t>Meeting team na presentatie voor feedback</t>
+  </si>
+  <si>
+    <t>Scope herbepalen,  verlengen van het veeteelt project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting team taakverdeling en use cases </t>
+  </si>
+  <si>
+    <t>Brainstormen  de nieuwe &gt; scope, rollen, taken en use cases noteren voor de uitgebreide scope veeteelt</t>
   </si>
 </sst>
 </file>
@@ -328,7 +355,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -370,6 +397,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="3" builtinId="3" customBuiltin="1"/>
@@ -386,6 +416,9 @@
     <cellStyle name="Title" xfId="10" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -404,9 +437,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -672,15 +702,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B2:H13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B2:H17" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORITY "/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="0" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="1" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -982,10 +1012,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
@@ -994,7 +1024,7 @@
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
+    <col min="8" max="8" width="49" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
   </cols>
@@ -1007,7 +1037,9 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
@@ -1061,7 +1093,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList[HOURS WORKED])</f>
-        <v>17.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -1272,22 +1304,124 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44139</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44139</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="30" customHeight="1">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44139</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44139</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="30" customHeight="1">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44139</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44139</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="30" customHeight="1">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44141</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44139</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="30" customHeight="1">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44139</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44139</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B13:F13">
+  <conditionalFormatting sqref="B13:F13 C14:F17">
     <cfRule type="expression" dxfId="11" priority="14">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="46" yWindow="284" count="11">
+  <dataValidations xWindow="46" yWindow="284" count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list with progress tracker in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entries" sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
@@ -1295,16 +1429,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C13" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C13:C17" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D13" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D13:D17" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F13" xr:uid="{00000000-0002-0000-0000-00000D000000}">
-      <formula1>F13&gt;=E13</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G13" xr:uid="{2CAE7E5B-2E18-F847-86E5-AC7789E67A7B}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G13:G17" xr:uid="{2CAE7E5B-2E18-F847-86E5-AC7789E67A7B}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1394,11 +1525,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
+        <v>44145</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44142</v>
+        <v>44152</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1420,11 +1551,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44105</v>
+        <v>44115</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44140</v>
+        <v>44150</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1442,11 +1573,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44122</v>
+        <v>44132</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1516,16 +1647,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G13" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F13" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D13" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C13" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{38366972-6BAD-ED49-820F-15C57DA24E8D}"/>
@@ -1622,11 +1753,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
+        <v>44145</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44142</v>
+        <v>44152</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1648,11 +1779,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44105</v>
+        <v>44115</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44140</v>
+        <v>44150</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1670,11 +1801,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44122</v>
+        <v>44132</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1744,16 +1875,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G13" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F13" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D13" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C13" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{77D48218-7B93-0340-82A3-A578717FF107}"/>
@@ -1850,11 +1981,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44135</v>
+        <v>44145</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+7</f>
-        <v>44142</v>
+        <v>44152</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1876,11 +2007,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44105</v>
+        <v>44115</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+35</f>
-        <v>44140</v>
+        <v>44150</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1898,11 +2029,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+10</f>
-        <v>44122</v>
+        <v>44132</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1979,16 +2110,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D2" xr:uid="{275103DB-4B36-354F-A152-921FEA99272A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E2" xr:uid="{B0C57800-60CE-364D-B862-8A8D72DC6AAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{863D0563-08BD-244A-A90F-97D0D984A9BC}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C13" xr:uid="{FFCA7491-2AEA-EE47-8145-1D46BFA04D3E}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{FFCA7491-2AEA-EE47-8145-1D46BFA04D3E}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D13" xr:uid="{DFC06829-7713-0340-AC90-3651D32D2CE8}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{DFC06829-7713-0340-AC90-3651D32D2CE8}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F13" xr:uid="{7CC77FE1-F0D6-FC40-8FC7-AC0B41FB6CD4}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{7CC77FE1-F0D6-FC40-8FC7-AC0B41FB6CD4}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G13" xr:uid="{8532DE81-4E7A-D74B-9BCD-9342D44CE07D}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{8532DE81-4E7A-D74B-9BCD-9342D44CE07D}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/Logging_Fabio.xlsx
+++ b/Logging_Fabio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiopuissant/UHasselt/Software Engineering/inf-seng-20-21-team-projectgroep-10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D0861-D860-4F49-95FA-557DD11D2019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6EA4AF-9F0B-494F-B4EA-CD9D272DD161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task List Fabio" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>TASK</t>
   </si>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>Brainstormen  de nieuwe &gt; scope, rollen, taken en use cases noteren voor de uitgebreide scope veeteelt</t>
+  </si>
+  <si>
+    <t>Meeting implementern feedback probleemomschrijving</t>
+  </si>
+  <si>
+    <t>Probleemomschrijving uitgebreidt beschrijven, zorgen dat iedereeen hetzelfde idee heeft over de functies uit de nieuwe, verbeterde projectomschrijving.</t>
+  </si>
+  <si>
+    <t>Uitschrijven van het subdeel 'rollen en rechten' voor de probleemstelling.</t>
+  </si>
+  <si>
+    <t>Probleemomschrijving uitbreiden</t>
+  </si>
+  <si>
+    <t>Meeting Analyse Sprint</t>
+  </si>
+  <si>
+    <t>Bespreken wat er tijdens de analyse moet gebreuren; Taakverdeling; Aanpak;</t>
+  </si>
+  <si>
+    <t>Functionele requirements opstellen</t>
+  </si>
+  <si>
+    <t>Eerste 36 functionele voorlopige requirements uitgeschreven.</t>
   </si>
 </sst>
 </file>
@@ -436,7 +460,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -514,13 +544,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -702,15 +726,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B2:H17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B2:H21" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORITY "/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="1" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="10" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -729,8 +753,8 @@
     <tableColumn id="4" xr3:uid="{08343B73-5922-1F4A-B1B6-8BD0E5A41E25}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{1A6ABB63-28E7-8143-8DEF-16BFFBACEE09}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{10AB3798-2BB1-744B-87CE-102A9EDC3ACB}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="9" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="7" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -749,8 +773,8 @@
     <tableColumn id="4" xr3:uid="{6C3DB45E-15AD-6D45-B2F7-1586E2EBA779}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{BF9C8E9D-6589-0143-95EF-3AF3DFA62B85}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{A724884B-7097-8146-B989-9D02FD4864CE}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="6" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="4" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -769,8 +793,8 @@
     <tableColumn id="4" xr3:uid="{56B4C51E-0B8E-304C-89EC-F36DDC7218F6}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{49E9A012-34F6-134D-83DD-762339356686}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{BF7252B0-8FCB-B64F-B151-CF8CACBD611D}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="3" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="1" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1012,10 +1036,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
@@ -1024,8 +1048,8 @@
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1093,7 +1117,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList[HOURS WORKED])</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -1395,7 +1419,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="30" customHeight="1">
+    <row r="17" spans="2:8" ht="30" customHeight="1">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1403,20 +1430,109 @@
         <v>11</v>
       </c>
       <c r="E17" s="2">
+        <v>44168</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44168</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="30" customHeight="1">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44168</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44168</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44175</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44175</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="30" customHeight="1">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44175</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44184</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="30" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44131</v>
+      </c>
+      <c r="F21" s="2">
         <v>44139</v>
       </c>
-      <c r="F17" s="2">
-        <v>44139</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="H17" s="15"/>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B13:F13 C14:F17">
+  <conditionalFormatting sqref="B13:F13 C14:F21">
     <cfRule type="expression" dxfId="11" priority="14">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
@@ -1429,13 +1545,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C13:C17" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C13:C21" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D13:D17" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D13:D21" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G13:G17" xr:uid="{2CAE7E5B-2E18-F847-86E5-AC7789E67A7B}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G2:G21" xr:uid="{57FA1E33-ABF3-9D4A-BF05-395E4DACFE16}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1525,11 +1641,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44145</v>
+        <v>44175</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1551,11 +1667,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1573,11 +1689,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1642,21 +1758,21 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G21" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F21" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D21" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C21" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{38366972-6BAD-ED49-820F-15C57DA24E8D}"/>
@@ -1753,11 +1869,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44145</v>
+        <v>44175</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1779,11 +1895,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1801,11 +1917,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1870,21 +1986,21 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G21" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F21" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D21" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C21" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{77D48218-7B93-0340-82A3-A578717FF107}"/>
@@ -1981,11 +2097,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44145</v>
+        <v>44175</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+7</f>
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2007,11 +2123,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+35</f>
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2029,11 +2145,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+10</f>
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2098,7 +2214,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2110,16 +2226,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D2" xr:uid="{275103DB-4B36-354F-A152-921FEA99272A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E2" xr:uid="{B0C57800-60CE-364D-B862-8A8D72DC6AAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{863D0563-08BD-244A-A90F-97D0D984A9BC}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C17" xr:uid="{FFCA7491-2AEA-EE47-8145-1D46BFA04D3E}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C21" xr:uid="{FFCA7491-2AEA-EE47-8145-1D46BFA04D3E}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D17" xr:uid="{DFC06829-7713-0340-AC90-3651D32D2CE8}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D21" xr:uid="{DFC06829-7713-0340-AC90-3651D32D2CE8}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F17" xr:uid="{7CC77FE1-F0D6-FC40-8FC7-AC0B41FB6CD4}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F21" xr:uid="{7CC77FE1-F0D6-FC40-8FC7-AC0B41FB6CD4}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G17" xr:uid="{8532DE81-4E7A-D74B-9BCD-9342D44CE07D}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G21" xr:uid="{8532DE81-4E7A-D74B-9BCD-9342D44CE07D}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/Logging_Fabio.xlsx
+++ b/Logging_Fabio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiopuissant/UHasselt/Software Engineering/inf-seng-20-21-team-projectgroep-10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiopuissant/UHasselt/SEM1/Software Engineering/inf-seng-20-21-team-projectgroep-10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6EA4AF-9F0B-494F-B4EA-CD9D272DD161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1877504B-FC00-5C42-BDE0-328A3BEF8E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1940" windowWidth="33600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task List Fabio" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>TASK</t>
   </si>
@@ -203,6 +203,27 @@
   </si>
   <si>
     <t>Eerste 36 functionele voorlopige requirements uitgeschreven.</t>
+  </si>
+  <si>
+    <t>Verbetering analyse</t>
+  </si>
+  <si>
+    <t>Review en verbetering</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbetering </t>
+  </si>
+  <si>
+    <t>Use cases herdefinieren, nummeren van flows, linken van use-cases met functionele requirements</t>
+  </si>
+  <si>
+    <t>Bespreken van verbetering, Opmaken van backlog SPRINT_1</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
   </si>
 </sst>
 </file>
@@ -439,28 +460,7 @@
     <cellStyle name="Per cent" xfId="1" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="10" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -469,27 +469,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -497,25 +476,11 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -552,6 +517,69 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -698,20 +726,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To-do list" defaultPivotStyle="PivotStyleLight2">
     <tableStyle name="To Do List Pivot" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
-      <tableStyleElement type="pageFieldValues" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="20"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
+      <tableStyleElement type="pageFieldValues" dxfId="14"/>
     </tableStyle>
     <tableStyle name="To-do list" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -726,15 +754,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B2:H21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B2:H25" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORITY "/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="10" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="5" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -753,8 +781,8 @@
     <tableColumn id="4" xr3:uid="{08343B73-5922-1F4A-B1B6-8BD0E5A41E25}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{1A6ABB63-28E7-8143-8DEF-16BFFBACEE09}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{10AB3798-2BB1-744B-87CE-102A9EDC3ACB}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="7" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="12" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -773,8 +801,8 @@
     <tableColumn id="4" xr3:uid="{6C3DB45E-15AD-6D45-B2F7-1586E2EBA779}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{BF9C8E9D-6589-0143-95EF-3AF3DFA62B85}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{A724884B-7097-8146-B989-9D02FD4864CE}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="4" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="10" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -793,8 +821,8 @@
     <tableColumn id="4" xr3:uid="{56B4C51E-0B8E-304C-89EC-F36DDC7218F6}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{49E9A012-34F6-134D-83DD-762339356686}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{BF7252B0-8FCB-B64F-B151-CF8CACBD611D}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="1" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="8" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1036,10 +1064,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
@@ -1117,7 +1145,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList[HOURS WORKED])</f>
-        <v>28</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -1512,6 +1540,9 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1519,21 +1550,111 @@
         <v>11</v>
       </c>
       <c r="E21" s="2">
-        <v>44131</v>
+        <v>44186</v>
       </c>
       <c r="F21" s="2">
-        <v>44139</v>
+        <v>44186</v>
       </c>
       <c r="G21" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="30" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12">
+        <v>44255</v>
+      </c>
+      <c r="F22" s="12">
+        <v>44255</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="30" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12">
+        <v>44259</v>
+      </c>
+      <c r="F23" s="12">
+        <v>44260</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="30" customHeight="1">
+      <c r="B24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="12">
+        <v>44260</v>
+      </c>
+      <c r="F24" s="12">
+        <v>44260</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="30" customHeight="1">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12">
+        <v>44260</v>
+      </c>
+      <c r="F25" s="12">
+        <v>44260</v>
+      </c>
+      <c r="G25" s="13">
         <v>0</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B13:F13 C14:F21">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1551,7 +1672,7 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D13:D21" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G2:G21" xr:uid="{57FA1E33-ABF3-9D4A-BF05-395E4DACFE16}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G2:G21 G23:G25" xr:uid="{57FA1E33-ABF3-9D4A-BF05-395E4DACFE16}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1641,11 +1762,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44175</v>
+        <v>44259</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44182</v>
+        <v>44266</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1667,11 +1788,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44145</v>
+        <v>44229</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44180</v>
+        <v>44264</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1689,11 +1810,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44152</v>
+        <v>44236</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44162</v>
+        <v>44246</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1758,21 +1879,21 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G21" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G25" xr:uid="{FA4850AA-191D-C54C-8088-A0C5510AF946}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F21" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F25" xr:uid="{364325AB-25DE-EC46-8A5E-AE3D9349460A}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D21" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D25" xr:uid="{79B56497-027B-8E4B-9E60-01AACC729BC4}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C21" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C25" xr:uid="{C5919058-A463-8A49-8BB8-6623BCC20CA7}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{38366972-6BAD-ED49-820F-15C57DA24E8D}"/>
@@ -1869,11 +1990,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44175</v>
+        <v>44259</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44182</v>
+        <v>44266</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1895,11 +2016,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44145</v>
+        <v>44229</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44180</v>
+        <v>44264</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1917,11 +2038,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44152</v>
+        <v>44236</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44162</v>
+        <v>44246</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1986,21 +2107,21 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G21" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G25" xr:uid="{356A63AD-56A3-DA4A-98E2-5AF307F31BDB}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F21" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F25" xr:uid="{E85DA8D5-068A-7B49-B9E7-434F71539885}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D21" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D25" xr:uid="{875A503B-259B-B142-AD55-B17724B0976D}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C21" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C25" xr:uid="{C7165301-3BB0-4944-8AF3-CD678355808F}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{77D48218-7B93-0340-82A3-A578717FF107}"/>
@@ -2097,11 +2218,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44175</v>
+        <v>44259</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+7</f>
-        <v>44182</v>
+        <v>44266</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2123,11 +2244,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44145</v>
+        <v>44229</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+35</f>
-        <v>44180</v>
+        <v>44264</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2145,11 +2266,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44152</v>
+        <v>44236</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+10</f>
-        <v>44162</v>
+        <v>44246</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2214,7 +2335,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2226,16 +2347,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D2" xr:uid="{275103DB-4B36-354F-A152-921FEA99272A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E2" xr:uid="{B0C57800-60CE-364D-B862-8A8D72DC6AAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F2" xr:uid="{863D0563-08BD-244A-A90F-97D0D984A9BC}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C21" xr:uid="{FFCA7491-2AEA-EE47-8145-1D46BFA04D3E}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="C3:C25" xr:uid="{FFCA7491-2AEA-EE47-8145-1D46BFA04D3E}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D21" xr:uid="{DFC06829-7713-0340-AC90-3651D32D2CE8}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D3:D25" xr:uid="{DFC06829-7713-0340-AC90-3651D32D2CE8}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F21" xr:uid="{7CC77FE1-F0D6-FC40-8FC7-AC0B41FB6CD4}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date must be greater than or equal to the Start Date. Select YES to keep the value, NO to retry or CANCEL to clear the entry" sqref="F3:F25" xr:uid="{7CC77FE1-F0D6-FC40-8FC7-AC0B41FB6CD4}">
       <formula1>F3&gt;=E3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G21" xr:uid="{8532DE81-4E7A-D74B-9BCD-9342D44CE07D}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G3:G25" xr:uid="{8532DE81-4E7A-D74B-9BCD-9342D44CE07D}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/Logging_Fabio.xlsx
+++ b/Logging_Fabio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiopuissant/UHasselt/SEM1/Software Engineering/inf-seng-20-21-team-projectgroep-10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\uhasselt\SEM1\SOFTENG\inf-seng-20-21-team-projectgroep-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1877504B-FC00-5C42-BDE0-328A3BEF8E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA7ABEE-22B5-490D-BB9F-1C1B9E0B2D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1940" windowWidth="33600" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1470" yWindow="1470" windowWidth="23685" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task List Fabio" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="Task List Dave" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ColumnTitle1">" "</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Task List Dave'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Task List Fabio'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Task List Niels'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Task List Wouter'!$2:$2</definedName>
+    <definedName name="ColumnTitle1">" "</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="100">
   <si>
     <t>TASK</t>
   </si>
@@ -224,6 +224,123 @@
   </si>
   <si>
     <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Login maken (Backend), DataBase opzetten</t>
+  </si>
+  <si>
+    <t>Login Api gemaakt. Database geconfigureerd. Postman API testen gemaakt</t>
+  </si>
+  <si>
+    <t>User authentication en registration controller unit testen</t>
+  </si>
+  <si>
+    <t>Unit testen met Mocks gemaakt voor user login en authoritized access te testen</t>
+  </si>
+  <si>
+    <t>Meeting Review SPRINT1</t>
+  </si>
+  <si>
+    <t>Review SPRINT_1 + sprint plaaning SPRINT_2</t>
+  </si>
+  <si>
+    <t>Front end template configureren</t>
+  </si>
+  <si>
+    <t>Front end template configureren, opzetten en samen laten serve door backend API server</t>
+  </si>
+  <si>
+    <t>TaskItem modellen programmeren , Controller endpoints 'verbeteren'</t>
+  </si>
+  <si>
+    <t>Backend TaskItemController</t>
+  </si>
+  <si>
+    <t>Backend TaskItemController Testen</t>
+  </si>
+  <si>
+    <t>Unit Testen</t>
+  </si>
+  <si>
+    <t>Updaten van User Rollen, passwoorden vervangen, properties veranderen + Unit testen</t>
+  </si>
+  <si>
+    <t>User controller uitbreiden, Authorisatie testen alle controllers</t>
+  </si>
+  <si>
+    <t>Backend Unit tes coverage verhogen</t>
+  </si>
+  <si>
+    <t>Test coverage rapport tools installeren, unit test coverage score opkrikken van 49% -&gt; 89%</t>
+  </si>
+  <si>
+    <t>Meeting demo</t>
+  </si>
+  <si>
+    <t>Meeting aanpak, Demo 13/04</t>
+  </si>
+  <si>
+    <t>Deployment Diagram</t>
+  </si>
+  <si>
+    <t>Maken en uitzoeken van Deployment diagram + maken van deployment diagram</t>
+  </si>
+  <si>
+    <t>UML Diagram</t>
+  </si>
+  <si>
+    <t>UML diagram maken</t>
+  </si>
+  <si>
+    <t>Verder werken aan UML diagram</t>
+  </si>
+  <si>
+    <t>Feedback meeting</t>
+  </si>
+  <si>
+    <t>Feedback meeting met begeleider prof. dr. Jan Van Den Berg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning en taakverdeling (teamleden) voor aanstaande week </t>
+  </si>
+  <si>
+    <t>UML Diagram Feedback toevoegen</t>
+  </si>
+  <si>
+    <t>UML diagram verbeteren: kleur codes, en diagrammen met patterns maken</t>
+  </si>
+  <si>
+    <t>Component Diagram Maken</t>
+  </si>
+  <si>
+    <t>Component diagram: leren hoe en wat + het opstellen van het component diagram voor VMS applicatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend authenticatie </t>
+  </si>
+  <si>
+    <t>Frontend login scherm</t>
+  </si>
+  <si>
+    <t>Login scherm dat responsive is en werkt met de backend</t>
+  </si>
+  <si>
+    <t>Authenticatie module in front end voorzien die gebruikt kan worden doorheen de webapplicatie om gegevens van de ingelogde gebruik te bekijken en token te herbruiken voor communicatie met de backend</t>
+  </si>
+  <si>
+    <t>Frontend Ingelogde user pagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend uitloggen </t>
+  </si>
+  <si>
+    <t>Pagina voor de ingelogde gebruiker in staat te stellen om eigen gegevens te bekijken en te veranderen, ook passwoord veranderen valt hieronder!!</t>
+  </si>
+  <si>
+    <t>Uitloggen geimplementeerd in de frontend en de app afgeschermt van gebnruik als uitgelogd is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plannen volgende deliverables; brainstormen voor grafiek; Overlopen van checklist </t>
   </si>
 </sst>
 </file>
@@ -231,12 +348,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -384,15 +501,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
@@ -400,14 +517,14 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="8" applyBorder="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="8" applyBorder="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10"/>
@@ -445,28 +562,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Comma" xfId="3" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="6" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Date" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Done" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="7" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="10" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Komma [0]" xfId="4" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="11" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="7" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Titel" xfId="10" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Valuta" xfId="5" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Valuta [0]" xfId="6" builtinId="7" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="24">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -476,11 +613,53 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Bookman Old Style"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -517,69 +696,6 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Bookman Old Style"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <border>
@@ -726,20 +842,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To-do list" defaultPivotStyle="PivotStyleLight2">
     <tableStyle name="To Do List Pivot" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="20"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
-      <tableStyleElement type="pageFieldValues" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
+      <tableStyleElement type="pageFieldValues" dxfId="13"/>
     </tableStyle>
     <tableStyle name="To-do list" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -754,15 +870,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B2:H25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ToDoList" displayName="ToDoList" ref="B2:H45" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TASK"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORITY "/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="5" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HOURS WORKED" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{78C56347-6357-9244-81CF-2384BCAA30AF}" name="NOTES" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -781,8 +897,8 @@
     <tableColumn id="4" xr3:uid="{08343B73-5922-1F4A-B1B6-8BD0E5A41E25}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{1A6ABB63-28E7-8143-8DEF-16BFFBACEE09}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{10AB3798-2BB1-744B-87CE-102A9EDC3ACB}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="12" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{82B04305-6997-C845-806A-AB5C2672DF04}" name="HOURS WORKED" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{78A7A19A-F09B-9643-8B8A-3B3CF7BB1A45}" name="NOTES" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -801,8 +917,8 @@
     <tableColumn id="4" xr3:uid="{6C3DB45E-15AD-6D45-B2F7-1586E2EBA779}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{BF9C8E9D-6589-0143-95EF-3AF3DFA62B85}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{A724884B-7097-8146-B989-9D02FD4864CE}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="10" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{1D6CB921-DFAC-F14B-BA58-3FD08A59A7B2}" name="HOURS WORKED" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6B743C2B-2BD0-8641-AD58-FC1961A87F42}" name="NOTES" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -821,8 +937,8 @@
     <tableColumn id="4" xr3:uid="{56B4C51E-0B8E-304C-89EC-F36DDC7218F6}" name="STATUS "/>
     <tableColumn id="6" xr3:uid="{49E9A012-34F6-134D-83DD-762339356686}" name="START DATE " dataCellStyle="Date"/>
     <tableColumn id="7" xr3:uid="{BF7252B0-8FCB-B64F-B151-CF8CACBD611D}" name="DUE DATE " dataCellStyle="Date"/>
-    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="8" dataCellStyle="Per cent"/>
-    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{574B9FFA-9DA2-ED49-9908-BC58972B4866}" name="HOURS WORKED" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{83077B79-F877-2D48-BCD9-AEFC907B0744}" name="NOTES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="To-do list" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1064,21 +1180,21 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="91.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -1145,7 +1261,7 @@
       </c>
       <c r="I3" s="9">
         <f>SUM(ToDoList[HOURS WORKED])</f>
-        <v>35.5</v>
+        <v>111.75</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1">
@@ -1632,7 +1748,9 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C25" s="11" t="s">
         <v>6</v>
       </c>
@@ -1640,21 +1758,480 @@
         <v>11</v>
       </c>
       <c r="E25" s="12">
-        <v>44260</v>
+        <v>44268</v>
       </c>
       <c r="F25" s="12">
-        <v>44260</v>
+        <v>44268</v>
       </c>
       <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="30" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12">
+        <v>44269</v>
+      </c>
+      <c r="F26" s="12">
+        <v>44269</v>
+      </c>
+      <c r="G26" s="13">
+        <v>6</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="30" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="12">
+        <v>44279</v>
+      </c>
+      <c r="F27" s="12">
+        <v>44279</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="30" customHeight="1">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="16">
+        <v>44279</v>
+      </c>
+      <c r="F28" s="16">
+        <v>44279</v>
+      </c>
+      <c r="G28" s="17">
+        <v>3</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="30" customHeight="1">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="16">
+        <v>44279</v>
+      </c>
+      <c r="F29" s="16">
+        <v>44282</v>
+      </c>
+      <c r="G29" s="17">
+        <v>4</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="30" customHeight="1">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="16">
+        <v>44279</v>
+      </c>
+      <c r="F30" s="16">
+        <v>44284</v>
+      </c>
+      <c r="G30" s="17">
+        <v>5</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="30" customHeight="1">
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="16">
+        <v>44279</v>
+      </c>
+      <c r="F31" s="16">
+        <v>44289</v>
+      </c>
+      <c r="G31" s="17">
+        <v>6</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="30" customHeight="1">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="16">
+        <v>44279</v>
+      </c>
+      <c r="F32" s="16">
+        <v>44300</v>
+      </c>
+      <c r="G32" s="17">
+        <v>7</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="30" customHeight="1">
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="16">
+        <v>44279</v>
+      </c>
+      <c r="F33" s="16">
+        <v>44300</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="30" customHeight="1">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="16">
+        <v>44317</v>
+      </c>
+      <c r="F34" s="16">
+        <v>44317</v>
+      </c>
+      <c r="G34" s="17">
+        <v>2</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="30" customHeight="1">
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="16">
+        <v>44318</v>
+      </c>
+      <c r="F35" s="16">
+        <v>44318</v>
+      </c>
+      <c r="G35" s="17">
+        <v>3</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="30" customHeight="1">
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="16">
+        <v>44322</v>
+      </c>
+      <c r="F36" s="16">
+        <v>44322</v>
+      </c>
+      <c r="G36" s="17">
+        <v>4</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="30" customHeight="1">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="16">
+        <v>44323</v>
+      </c>
+      <c r="F37" s="16">
+        <v>44323</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="30" customHeight="1">
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="16">
+        <v>44323</v>
+      </c>
+      <c r="F38" s="16">
+        <v>44323</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="30" customHeight="1">
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="16">
+        <v>44327</v>
+      </c>
+      <c r="F39" s="16">
+        <v>44327</v>
+      </c>
+      <c r="G39" s="17">
+        <v>2</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="30" customHeight="1">
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="16">
+        <v>44327</v>
+      </c>
+      <c r="F40" s="16">
+        <v>44327</v>
+      </c>
+      <c r="G40" s="17">
+        <v>2</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="30" customHeight="1">
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="16">
+        <v>44329</v>
+      </c>
+      <c r="F41" s="16">
+        <v>44329</v>
+      </c>
+      <c r="G41" s="17">
+        <v>5</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="30" customHeight="1">
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="16">
+        <v>44329</v>
+      </c>
+      <c r="F42" s="16">
+        <v>44329</v>
+      </c>
+      <c r="G42" s="17">
+        <v>5</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="30" customHeight="1">
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="16">
+        <v>44330</v>
+      </c>
+      <c r="F43" s="16">
+        <v>44330</v>
+      </c>
+      <c r="G43" s="17">
+        <v>5</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="30" customHeight="1">
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="16">
+        <v>44330</v>
+      </c>
+      <c r="F44" s="16">
+        <v>44330</v>
+      </c>
+      <c r="G44" s="17">
+        <v>5</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="30" customHeight="1">
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="16">
+        <v>44334</v>
+      </c>
+      <c r="F45" s="16">
+        <v>44334</v>
+      </c>
+      <c r="G45" s="17">
+        <v>2</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B13:F13 C14:F21">
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1672,7 +2249,7 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to navigate the list. Select ENTER to make selection" sqref="D13:D21" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Not Started, In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G2:G21 G23:G25" xr:uid="{57FA1E33-ABF3-9D4A-BF05-395E4DACFE16}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hours worked on task" prompt="Enter a Nummeric value (Decimal or Whole) for the hours worked on this task " sqref="G2:G21 G23:G27" xr:uid="{57FA1E33-ABF3-9D4A-BF05-395E4DACFE16}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1701,15 +2278,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -1762,11 +2339,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44259</v>
+        <v>44335</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+7</f>
-        <v>44266</v>
+        <v>44342</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1788,11 +2365,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44229</v>
+        <v>44305</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+35</f>
-        <v>44264</v>
+        <v>44340</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1810,11 +2387,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44236</v>
+        <v>44312</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList2[[#This Row],[START DATE ]]+10</f>
-        <v>44246</v>
+        <v>44322</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1879,7 +2456,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1929,15 +2506,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -1990,11 +2567,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44259</v>
+        <v>44335</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+7</f>
-        <v>44266</v>
+        <v>44342</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2016,11 +2593,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44229</v>
+        <v>44305</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+35</f>
-        <v>44264</v>
+        <v>44340</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2038,11 +2615,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44236</v>
+        <v>44312</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList3[[#This Row],[START DATE ]]+10</f>
-        <v>44246</v>
+        <v>44322</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2107,7 +2684,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2157,15 +2734,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1">
@@ -2218,11 +2795,11 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44259</v>
+        <v>44335</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+7</f>
-        <v>44266</v>
+        <v>44342</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2244,11 +2821,11 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()-30</f>
-        <v>44229</v>
+        <v>44305</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+35</f>
-        <v>44264</v>
+        <v>44340</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2266,11 +2843,11 @@
       </c>
       <c r="E5" s="2">
         <f ca="1">TODAY()-23</f>
-        <v>44236</v>
+        <v>44312</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">ToDoList34[[#This Row],[START DATE ]]+10</f>
-        <v>44246</v>
+        <v>44322</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2335,7 +2912,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B3:F13">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(#REF!=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
